--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdgfb-Pdgfra.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H2">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I2">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J2">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N2">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P2">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q2">
-        <v>11.47086764063378</v>
+        <v>4.124534915331556</v>
       </c>
       <c r="R2">
-        <v>103.237808765704</v>
+        <v>37.12081423798401</v>
       </c>
       <c r="S2">
-        <v>0.001174431532222661</v>
+        <v>0.0004999011834452298</v>
       </c>
       <c r="T2">
-        <v>0.001174431532222661</v>
+        <v>0.0004999011834452297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H3">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I3">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J3">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P3">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q3">
-        <v>9310.431893669862</v>
+        <v>7903.11710798305</v>
       </c>
       <c r="R3">
-        <v>83793.88704302875</v>
+        <v>71128.05397184745</v>
       </c>
       <c r="S3">
-        <v>0.9532378140083992</v>
+        <v>0.9578722634887382</v>
       </c>
       <c r="T3">
-        <v>0.9532378140083991</v>
+        <v>0.9578722634887382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.23709466666667</v>
+        <v>35.00391733333333</v>
       </c>
       <c r="H4">
-        <v>123.711284</v>
+        <v>105.011752</v>
       </c>
       <c r="I4">
-        <v>0.956365997213294</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="J4">
-        <v>0.9563659972132939</v>
+        <v>0.9591895364534718</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N4">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P4">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q4">
-        <v>19.08261675968045</v>
+        <v>6.743889717357332</v>
       </c>
       <c r="R4">
-        <v>171.743550837124</v>
+        <v>60.69500745621599</v>
       </c>
       <c r="S4">
-        <v>0.001953751672672172</v>
+        <v>0.000817371781288471</v>
       </c>
       <c r="T4">
-        <v>0.001953751672672172</v>
+        <v>0.0008173717812884709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.091629</v>
       </c>
       <c r="I5">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J5">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N5">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P5">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q5">
-        <v>0.008496105586000001</v>
+        <v>0.003598902052</v>
       </c>
       <c r="R5">
-        <v>0.07646495027399999</v>
+        <v>0.032390118468</v>
       </c>
       <c r="S5">
-        <v>8.698639557086014E-07</v>
+        <v>4.361935180159928E-07</v>
       </c>
       <c r="T5">
-        <v>8.698639557086012E-07</v>
+        <v>4.361935180159927E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.091629</v>
       </c>
       <c r="I6">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J6">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P6">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q6">
         <v>6.895939775267999</v>
@@ -818,10 +818,10 @@
         <v>62.06345797741199</v>
       </c>
       <c r="S6">
-        <v>0.0007060328276907676</v>
+        <v>0.0008358005266992365</v>
       </c>
       <c r="T6">
-        <v>0.0007060328276907675</v>
+        <v>0.0008358005266992365</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.091629</v>
       </c>
       <c r="I7">
-        <v>0.0007083497731593903</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="J7">
-        <v>0.0007083497731593902</v>
+        <v>0.0008369499257158872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N7">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P7">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q7">
-        <v>0.014133885241</v>
+        <v>0.005884444922999999</v>
       </c>
       <c r="R7">
-        <v>0.127204967169</v>
+        <v>0.05296000430699999</v>
       </c>
       <c r="S7">
-        <v>1.447081512914202E-06</v>
+        <v>7.132054986348701E-07</v>
       </c>
       <c r="T7">
-        <v>1.447081512914201E-06</v>
+        <v>7.1320549863487E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H8">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I8">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J8">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2781686666666667</v>
+        <v>0.1178306666666667</v>
       </c>
       <c r="N8">
-        <v>0.834506</v>
+        <v>0.353492</v>
       </c>
       <c r="O8">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903252</v>
       </c>
       <c r="P8">
-        <v>0.001228014730390642</v>
+        <v>0.0005211703885903251</v>
       </c>
       <c r="Q8">
-        <v>0.5148598816153334</v>
+        <v>0.1718869382448889</v>
       </c>
       <c r="R8">
-        <v>4.633738934538</v>
+        <v>1.546982444204</v>
       </c>
       <c r="S8">
-        <v>5.271333421227283E-05</v>
+        <v>2.083301162707936E-05</v>
       </c>
       <c r="T8">
-        <v>5.271333421227281E-05</v>
+        <v>2.083301162707936E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H9">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I9">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J9">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>677.3342279999999</v>
       </c>
       <c r="O9">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="P9">
-        <v>0.9967290940769435</v>
+        <v>0.9986266812609277</v>
       </c>
       <c r="Q9">
-        <v>417.8906088657159</v>
+        <v>329.3565529612706</v>
       </c>
       <c r="R9">
-        <v>3761.015479791444</v>
+        <v>2964.208976651435</v>
       </c>
       <c r="S9">
-        <v>0.04278524724085363</v>
+        <v>0.03991861724549019</v>
       </c>
       <c r="T9">
-        <v>0.04278524724085362</v>
+        <v>0.03991861724549019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.850891</v>
+        <v>1.458762333333333</v>
       </c>
       <c r="H10">
-        <v>5.552673</v>
+        <v>4.376287</v>
       </c>
       <c r="I10">
-        <v>0.04292565301354671</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="J10">
-        <v>0.0429256530135467</v>
+        <v>0.03997351362081222</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4627536666666667</v>
+        <v>0.192661</v>
       </c>
       <c r="N10">
-        <v>1.388261</v>
+        <v>0.5779829999999999</v>
       </c>
       <c r="O10">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820529</v>
       </c>
       <c r="P10">
-        <v>0.002042891192665893</v>
+        <v>0.0008521483504820528</v>
       </c>
       <c r="Q10">
-        <v>0.8565065968503334</v>
+        <v>0.2810466099023333</v>
       </c>
       <c r="R10">
-        <v>7.708559371653</v>
+        <v>2.529419489121</v>
       </c>
       <c r="S10">
-        <v>8.769243848080672E-05</v>
+        <v>3.4063363694947E-05</v>
       </c>
       <c r="T10">
-        <v>8.769243848080669E-05</v>
+        <v>3.4063363694947E-05</v>
       </c>
     </row>
   </sheetData>
